--- a/tests/databooks/databook_hypertension.xlsx
+++ b/tests/databooks/databook_hypertension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EF2C46F2-3873-6B4D-8DF0-26CDCB7CA73D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{21B7CB11-10E2-5E41-8CF8-95F016A42DFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="20920" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Robyn Stuart:</t>
         </r>
         <r>
           <rPr>
@@ -63,9 +63,42 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Price et al. Lancet Diabetes Endocrinol 2018</t>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{87E189D8-3270-6145-A6D0-94262A18FAE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
         </r>
         <r>
           <rPr>
@@ -73,9 +106,782 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{ACF2EC0F-B19F-1443-B142-AA8B4B8E2426}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{6573B444-DB65-F54C-9739-08C53ECF1605}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{444B7108-118F-9645-AAE4-BBE2AF552930}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{6254D5D8-0AE9-954A-A9C6-5AEFF567B711}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{85F6260C-73D0-9540-B169-092B53FFE503}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{D073D92A-91F2-0645-AA22-12D3D4B499D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{DA37402C-DD86-1E48-A608-70F787688DB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{1736AF46-E5C6-1846-B6D8-3A310E79DDE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{9103E852-9D8A-1946-A74B-DA044EDF6C6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{69FAC7C7-0BA1-EA4A-83D7-A6C9FBA08912}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{8B2B3F49-6289-9D48-AB17-9872A68838C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{9EC8907B-9C8C-6C40-B9AD-2CF9C31F501E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{46FE1865-ECED-B347-A559-21B57DF521E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{EF45E56E-F987-8E4C-8E34-BD19B4A78187}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{45676FCF-2F74-C84B-9AB1-56D02BEE8A44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{F12EE566-141B-E147-A710-801BF3657119}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{5F903948-F64C-5544-9356-5211737AE516}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{4524B1BA-2CCB-4A48-9068-FD43EFAC10F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">All values from </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
 </t>
         </r>
       </text>
@@ -90,7 +896,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Robyn Stuart:</t>
         </r>
         <r>
           <rPr>
@@ -113,7 +919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{6F7106EC-6C9B-1B4B-931C-351D48C74FA4}">
+    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{494FF6CA-50EF-2C4A-A69A-919D1565DF1A}">
       <text>
         <r>
           <rPr>
@@ -123,7 +929,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Robyn Stuart:</t>
         </r>
         <r>
           <rPr>
@@ -146,7 +952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{000F3714-1BE0-0C4F-AA0E-BF9ED3EE2F95}">
+    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{625D01FD-CB02-704F-8AA9-26F6B9587F08}">
       <text>
         <r>
           <rPr>
@@ -156,7 +962,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Robyn Stuart:</t>
         </r>
         <r>
           <rPr>
@@ -179,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{569BACF5-D0AA-6548-AF92-A373CB4E377D}">
+    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{19BFE41E-D8B8-2A45-99F5-CD73D5FE075B}">
       <text>
         <r>
           <rPr>
@@ -189,7 +995,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Robyn Stuart:</t>
         </r>
         <r>
           <rPr>
@@ -212,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{AFC0E74E-08B4-CF47-B059-BD421D1254F5}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{86CF299E-F8AD-A14D-AD8C-BE20D5C297C4}">
       <text>
         <r>
           <rPr>
@@ -222,7 +1028,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Robyn Stuart:</t>
         </r>
         <r>
           <rPr>
@@ -242,6 +1048,435 @@
             <family val="2"/>
           </rPr>
           <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{080CBDDA-CD6E-CA46-9564-C0E2E7400FCF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{82D3DB02-8EDE-9A44-94D4-5268BE5224D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{32E46586-64EC-A54E-B8AE-32E0968F53A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{CA793CB1-CEB9-814F-99B3-BB67D651EA9A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{492BC608-053A-0B4E-B1D6-983B8325D015}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{42BDC5CC-3098-5E4C-B266-5129C5939E64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{5F7D6D9B-4DCE-5446-87D0-A6BEA9F68536}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{55483788-2A37-BB42-B25A-41DB1378D502}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E51" authorId="0" shapeId="0" xr:uid="{32F904EA-926E-9943-8F4B-BC8B012EF7E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{73AC43A3-A8DC-874F-8FB6-E367C91CE536}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E53" authorId="0" shapeId="0" xr:uid="{B5EF81EE-D358-D845-9DE9-A2E9020B8D1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="0" shapeId="0" xr:uid="{9C30E552-016A-C34F-AEDD-AF11F4DE9F71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Does this make sense??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{BAE8BC2C-E678-1642-88BC-4F6EC541926C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robyn Stuart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Does this make sense??</t>
         </r>
       </text>
     </comment>
@@ -371,10 +1606,9 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +1624,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +1676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,6 +1690,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,7 +2567,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1384,8 +2627,8 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:K35"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2238,7 +3481,7 @@
       <c r="G53" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2331,7 +3574,7 @@
       <c r="G59" s="4"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="1" t="s">
